--- a/data/trans_orig/P1407-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1407-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{94EDC8A4-1F20-4569-9060-2231FDE5C814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0195DD8D-D67F-402B-857B-A059CBEB9D76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EA4780D8-91FA-4416-AE52-9D5C0A8A3B66}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B807F5DB-2760-476C-9F83-EE897BEE44A2}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="285">
   <si>
     <t>Población con diagnóstico de estreñimiento crónico en 2012 (Tasa respuesta: 99,95%)</t>
   </si>
@@ -100,777 +100,771 @@
     <t>0,2%</t>
   </si>
   <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
     <t>1,23%</t>
   </si>
   <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de estreñimiento crónico en 2015 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>0,72%</t>
   </si>
   <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
   </si>
   <si>
     <t>2,73%</t>
   </si>
   <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>99,96%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
   </si>
   <si>
     <t>97,27%</t>
   </si>
   <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
   </si>
   <si>
     <t>0,98%</t>
   </si>
   <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
   </si>
   <si>
     <t>99,02%</t>
   </si>
   <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
   </si>
   <si>
     <t>0,93%</t>
   </si>
   <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
     <t>1,47%</t>
   </si>
   <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
   </si>
   <si>
     <t>98,53%</t>
   </si>
   <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de estreñimiento crónico en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
   </si>
   <si>
     <t>1,51%</t>
   </si>
   <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
   </si>
   <si>
     <t>98,49%</t>
   </si>
   <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de estreñimiento crónico en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
   </si>
   <si>
     <t>0,39%</t>
   </si>
   <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de estreñimiento crónico en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
     <t>99,77%</t>
   </si>
   <si>
@@ -895,13 +889,7 @@
     <t>99,94%</t>
   </si>
   <si>
-    <t>99,96%</t>
-  </si>
-  <si>
     <t>99,98%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
   </si>
   <si>
     <t>0,02%</t>
@@ -1316,7 +1304,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7EB0562-7206-427C-AC4F-67C3A05B029A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7A2E00F-67A0-4F75-815D-404276628B50}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2118,10 +2106,10 @@
         <v>55</v>
       </c>
       <c r="P17" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2136,10 +2124,10 @@
         <v>666749</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>29</v>
@@ -2151,13 +2139,13 @@
         <v>650580</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="M18" s="7">
         <v>1226</v>
@@ -2166,13 +2154,13 @@
         <v>1317329</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="P18" s="7" t="s">
-        <v>64</v>
-      </c>
       <c r="Q18" s="7" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2228,7 +2216,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2246,37 +2234,37 @@
         <v>16</v>
       </c>
       <c r="G20" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="M20" s="7">
+        <v>0</v>
+      </c>
+      <c r="N20" s="7">
+        <v>0</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="M20" s="7">
-        <v>0</v>
-      </c>
-      <c r="N20" s="7">
-        <v>0</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2291,13 +2279,13 @@
         <v>1169</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="H21" s="7">
         <v>9</v>
@@ -2306,13 +2294,13 @@
         <v>9501</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M21" s="7">
         <v>10</v>
@@ -2321,13 +2309,13 @@
         <v>10670</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2342,10 +2330,10 @@
         <v>211449</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>29</v>
@@ -2357,13 +2345,13 @@
         <v>210090</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="M22" s="7">
         <v>398</v>
@@ -2372,13 +2360,13 @@
         <v>421539</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2434,7 +2422,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2452,37 +2440,37 @@
         <v>16</v>
       </c>
       <c r="G24" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7">
+        <v>0</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="H24" s="7">
-        <v>0</v>
-      </c>
-      <c r="I24" s="7">
-        <v>0</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>0</v>
+      </c>
+      <c r="N24" s="7">
+        <v>0</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="M24" s="7">
-        <v>0</v>
-      </c>
-      <c r="N24" s="7">
-        <v>0</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2503,7 +2491,7 @@
         <v>16</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -2512,13 +2500,13 @@
         <v>976</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="M25" s="7">
         <v>1</v>
@@ -2527,13 +2515,13 @@
         <v>976</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2551,7 +2539,7 @@
         <v>29</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>36</v>
@@ -2563,10 +2551,10 @@
         <v>277120</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>29</v>
@@ -2578,10 +2566,10 @@
         <v>551101</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>29</v>
@@ -2640,7 +2628,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2709,7 +2697,7 @@
         <v>15</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H29" s="7">
         <v>10</v>
@@ -2718,13 +2706,13 @@
         <v>12323</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M29" s="7">
         <v>12</v>
@@ -2733,13 +2721,13 @@
         <v>14322</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2754,10 +2742,10 @@
         <v>660789</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>29</v>
@@ -2769,13 +2757,13 @@
         <v>681530</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M30" s="7">
         <v>1242</v>
@@ -2784,13 +2772,13 @@
         <v>1342319</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2915,7 +2903,7 @@
         <v>15</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="H33" s="7">
         <v>10</v>
@@ -2924,10 +2912,10 @@
         <v>11524</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="L33" s="7" t="s">
         <v>117</v>
@@ -2963,7 +2951,7 @@
         <v>121</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>29</v>
@@ -2975,13 +2963,13 @@
         <v>809871</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>65</v>
+        <v>123</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="M34" s="7">
         <v>1460</v>
@@ -2990,13 +2978,13 @@
         <v>1586828</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3070,7 +3058,7 @@
         <v>16</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -3085,7 +3073,7 @@
         <v>16</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -3100,7 +3088,7 @@
         <v>16</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3121,7 +3109,7 @@
         <v>42</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>129</v>
+        <v>68</v>
       </c>
       <c r="H37" s="7">
         <v>66</v>
@@ -3133,10 +3121,10 @@
         <v>130</v>
       </c>
       <c r="K37" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M37" s="7">
         <v>76</v>
@@ -3145,13 +3133,13 @@
         <v>81910</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3166,10 +3154,10 @@
         <v>3416486</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>136</v>
+        <v>76</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>47</v>
@@ -3181,13 +3169,13 @@
         <v>3482299</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>139</v>
+        <v>93</v>
       </c>
       <c r="M38" s="7">
         <v>6428</v>
@@ -3196,13 +3184,13 @@
         <v>6898784</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3258,7 +3246,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -3282,7 +3270,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45C04FDE-3E08-4FD1-8369-1D8AFAE85313}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55F972B5-04F5-4AAD-93AE-E47DEAC3EECA}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3299,7 +3287,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3412,7 +3400,7 @@
         <v>16</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>25</v>
+        <v>142</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3427,7 +3415,7 @@
         <v>16</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3442,7 +3430,7 @@
         <v>16</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3457,13 +3445,13 @@
         <v>1236</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H5" s="7">
         <v>11</v>
@@ -3472,13 +3460,13 @@
         <v>12241</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="M5" s="7">
         <v>12</v>
@@ -3487,13 +3475,13 @@
         <v>13477</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>72</v>
+        <v>149</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3508,10 +3496,10 @@
         <v>292525</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>29</v>
@@ -3523,13 +3511,13 @@
         <v>276462</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M6" s="7">
         <v>531</v>
@@ -3538,7 +3526,7 @@
         <v>568987</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>81</v>
+        <v>157</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>158</v>
@@ -3663,13 +3651,13 @@
         <v>2808</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>129</v>
+        <v>160</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -3696,10 +3684,10 @@
         <v>113</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>163</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3714,13 +3702,13 @@
         <v>499767</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H10" s="7">
         <v>484</v>
@@ -3747,7 +3735,7 @@
         <v>121</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>166</v>
+        <v>48</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>167</v>
@@ -3872,10 +3860,10 @@
         <v>170</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>50</v>
+        <v>171</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -3884,13 +3872,13 @@
         <v>3205</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>113</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>70</v>
+        <v>174</v>
       </c>
       <c r="M13" s="7">
         <v>6</v>
@@ -3905,7 +3893,7 @@
         <v>18</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3920,13 +3908,13 @@
         <v>315046</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>58</v>
+        <v>177</v>
       </c>
       <c r="H14" s="7">
         <v>329</v>
@@ -3935,10 +3923,10 @@
         <v>333104</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>78</v>
+        <v>179</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>121</v>
@@ -3950,10 +3938,10 @@
         <v>648151</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>27</v>
@@ -4030,7 +4018,7 @@
         <v>16</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4045,7 +4033,7 @@
         <v>16</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>177</v>
+        <v>102</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4075,13 +4063,13 @@
         <v>901</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>179</v>
+        <v>74</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
@@ -4090,13 +4078,13 @@
         <v>8012</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M17" s="7">
         <v>8</v>
@@ -4105,13 +4093,13 @@
         <v>8914</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4126,10 +4114,10 @@
         <v>369063</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>187</v>
+        <v>83</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>29</v>
@@ -4141,13 +4129,13 @@
         <v>379271</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M18" s="7">
         <v>704</v>
@@ -4156,13 +4144,13 @@
         <v>748333</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4218,7 +4206,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4236,7 +4224,7 @@
         <v>16</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4251,7 +4239,7 @@
         <v>16</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4266,7 +4254,7 @@
         <v>16</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4281,13 +4269,13 @@
         <v>891</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H21" s="7">
         <v>2</v>
@@ -4296,13 +4284,13 @@
         <v>2034</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>134</v>
+        <v>198</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M21" s="7">
         <v>3</v>
@@ -4311,13 +4299,13 @@
         <v>2925</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4332,10 +4320,10 @@
         <v>210330</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>29</v>
@@ -4347,10 +4335,10 @@
         <v>216553</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>142</v>
+        <v>204</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>29</v>
@@ -4362,13 +4350,13 @@
         <v>426883</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4424,7 +4412,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -4442,7 +4430,7 @@
         <v>16</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -4457,7 +4445,7 @@
         <v>16</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -4472,7 +4460,7 @@
         <v>16</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4487,13 +4475,13 @@
         <v>3415</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>209</v>
+        <v>40</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -4502,13 +4490,13 @@
         <v>4475</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>119</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>212</v>
+        <v>23</v>
       </c>
       <c r="M25" s="7">
         <v>8</v>
@@ -4517,13 +4505,13 @@
         <v>7891</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>135</v>
+        <v>214</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4538,13 +4526,13 @@
         <v>259708</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>217</v>
+        <v>44</v>
       </c>
       <c r="H26" s="7">
         <v>259</v>
@@ -4553,13 +4541,13 @@
         <v>268640</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>219</v>
+        <v>31</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M26" s="7">
         <v>514</v>
@@ -4568,13 +4556,13 @@
         <v>528347</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>141</v>
+        <v>220</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4630,7 +4618,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -4648,7 +4636,7 @@
         <v>16</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -4678,7 +4666,7 @@
         <v>16</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4699,7 +4687,7 @@
         <v>15</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H29" s="7">
         <v>14</v>
@@ -4708,13 +4696,13 @@
         <v>16727</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M29" s="7">
         <v>16</v>
@@ -4723,10 +4711,10 @@
         <v>18670</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>229</v>
+        <v>25</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>230</v>
@@ -4744,7 +4732,7 @@
         <v>654615</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>231</v>
@@ -4780,7 +4768,7 @@
         <v>236</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>237</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4854,7 +4842,7 @@
         <v>16</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -4899,13 +4887,13 @@
         <v>1848</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>239</v>
+        <v>118</v>
       </c>
       <c r="H33" s="7">
         <v>10</v>
@@ -4914,13 +4902,13 @@
         <v>12437</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>161</v>
+        <v>238</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>163</v>
+        <v>209</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M33" s="7">
         <v>12</v>
@@ -4929,13 +4917,13 @@
         <v>14285</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q33" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4950,10 +4938,10 @@
         <v>776735</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>244</v>
+        <v>125</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>29</v>
@@ -4965,13 +4953,13 @@
         <v>813730</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>164</v>
+        <v>242</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>166</v>
+        <v>244</v>
       </c>
       <c r="M34" s="7">
         <v>1493</v>
@@ -4980,13 +4968,13 @@
         <v>1590465</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5060,7 +5048,7 @@
         <v>16</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -5075,7 +5063,7 @@
         <v>16</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -5090,7 +5078,7 @@
         <v>16</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5105,13 +5093,13 @@
         <v>16562</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>50</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="H37" s="7">
         <v>51</v>
@@ -5120,13 +5108,13 @@
         <v>59131</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="M37" s="7">
         <v>68</v>
@@ -5135,13 +5123,13 @@
         <v>75693</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>163</v>
+        <v>195</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>255</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5156,13 +5144,13 @@
         <v>3377788</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H38" s="7">
         <v>3287</v>
@@ -5171,13 +5159,13 @@
         <v>3485411</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="M38" s="7">
         <v>6501</v>
@@ -5186,13 +5174,13 @@
         <v>6863199</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>262</v>
+        <v>123</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>166</v>
+        <v>259</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -5248,7 +5236,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -5272,7 +5260,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8F17BE5-2F39-43AE-87A5-CB9264F7A496}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD7791A6-150F-44EE-879F-115674BDF1F6}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5289,7 +5277,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5399,7 +5387,7 @@
         <v>29</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>36</v>
@@ -5414,7 +5402,7 @@
         <v>29</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>36</v>
@@ -5429,7 +5417,7 @@
         <v>29</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>36</v>
@@ -5468,7 +5456,7 @@
         <v>16</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -5483,7 +5471,7 @@
         <v>16</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5519,7 +5507,7 @@
         <v>16</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -5534,7 +5522,7 @@
         <v>16</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5605,7 +5593,7 @@
         <v>29</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>36</v>
@@ -5635,7 +5623,7 @@
         <v>29</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>36</v>
@@ -5659,7 +5647,7 @@
         <v>16</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -5689,7 +5677,7 @@
         <v>16</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5710,7 +5698,7 @@
         <v>16</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -5740,7 +5728,7 @@
         <v>16</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5811,7 +5799,7 @@
         <v>29</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>270</v>
+        <v>111</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>36</v>
@@ -5826,7 +5814,7 @@
         <v>29</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>36</v>
@@ -5841,7 +5829,7 @@
         <v>29</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>36</v>
@@ -5865,7 +5853,7 @@
         <v>16</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>177</v>
+        <v>102</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -5880,7 +5868,7 @@
         <v>16</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -5895,7 +5883,7 @@
         <v>16</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5916,7 +5904,7 @@
         <v>16</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>177</v>
+        <v>102</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -5931,7 +5919,7 @@
         <v>16</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -5946,7 +5934,7 @@
         <v>16</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6017,7 +6005,7 @@
         <v>29</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>36</v>
@@ -6032,7 +6020,7 @@
         <v>29</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>36</v>
@@ -6047,7 +6035,7 @@
         <v>29</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>36</v>
@@ -6071,7 +6059,7 @@
         <v>16</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -6086,7 +6074,7 @@
         <v>16</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -6101,7 +6089,7 @@
         <v>16</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6122,7 +6110,7 @@
         <v>16</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -6137,7 +6125,7 @@
         <v>16</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -6152,7 +6140,7 @@
         <v>16</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6208,7 +6196,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -6223,7 +6211,7 @@
         <v>29</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>36</v>
@@ -6238,7 +6226,7 @@
         <v>29</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>217</v>
+        <v>272</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>36</v>
@@ -6253,7 +6241,7 @@
         <v>29</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>36</v>
@@ -6277,7 +6265,7 @@
         <v>16</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -6292,7 +6280,7 @@
         <v>16</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>209</v>
+        <v>274</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -6328,7 +6316,7 @@
         <v>16</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -6343,7 +6331,7 @@
         <v>16</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>209</v>
+        <v>274</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -6414,7 +6402,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -6429,7 +6417,7 @@
         <v>29</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>248</v>
+        <v>194</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>36</v>
@@ -6444,7 +6432,7 @@
         <v>29</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>36</v>
@@ -6459,7 +6447,7 @@
         <v>29</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>36</v>
@@ -6483,7 +6471,7 @@
         <v>16</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>242</v>
+        <v>186</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -6498,7 +6486,7 @@
         <v>16</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -6513,7 +6501,7 @@
         <v>16</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6534,7 +6522,7 @@
         <v>16</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>242</v>
+        <v>186</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -6549,7 +6537,7 @@
         <v>16</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -6564,7 +6552,7 @@
         <v>16</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6620,7 +6608,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6635,7 +6623,7 @@
         <v>29</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>36</v>
@@ -6650,7 +6638,7 @@
         <v>29</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>36</v>
@@ -6665,7 +6653,7 @@
         <v>29</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>36</v>
@@ -6689,7 +6677,7 @@
         <v>16</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -6719,7 +6707,7 @@
         <v>16</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6740,7 +6728,7 @@
         <v>16</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -6770,7 +6758,7 @@
         <v>16</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6841,7 +6829,7 @@
         <v>29</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>36</v>
@@ -6856,7 +6844,7 @@
         <v>29</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>36</v>
@@ -6871,7 +6859,7 @@
         <v>29</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>36</v>
@@ -6910,7 +6898,7 @@
         <v>16</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M33" s="7">
         <v>0</v>
@@ -6925,7 +6913,7 @@
         <v>16</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6961,7 +6949,7 @@
         <v>16</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -6976,7 +6964,7 @@
         <v>16</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7047,7 +7035,7 @@
         <v>29</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>36</v>
@@ -7062,7 +7050,7 @@
         <v>29</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>285</v>
+        <v>177</v>
       </c>
       <c r="L36" s="7" t="s">
         <v>36</v>
@@ -7077,7 +7065,7 @@
         <v>29</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="Q36" s="7" t="s">
         <v>36</v>
@@ -7101,7 +7089,7 @@
         <v>16</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -7116,7 +7104,7 @@
         <v>16</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>287</v>
+        <v>171</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -7131,7 +7119,7 @@
         <v>16</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7152,7 +7140,7 @@
         <v>16</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -7167,7 +7155,7 @@
         <v>16</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>287</v>
+        <v>171</v>
       </c>
       <c r="M38" s="7">
         <v>0</v>
@@ -7182,7 +7170,7 @@
         <v>16</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7238,7 +7226,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1407-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1407-Provincia-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0195DD8D-D67F-402B-857B-A059CBEB9D76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{63F86AF9-B0F2-4A63-AE7A-F2166DE36F34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B807F5DB-2760-476C-9F83-EE897BEE44A2}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{823B32B3-1F99-4A89-B85D-594D3311E403}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="282">
   <si>
     <t>Población con diagnóstico de estreñimiento crónico en 2012 (Tasa respuesta: 99,95%)</t>
   </si>
@@ -106,790 +106,781 @@
     <t>2,23%</t>
   </si>
   <si>
-    <t>1,2%</t>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de estreñimiento crónico en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
   </si>
   <si>
     <t>3,89%</t>
   </si>
   <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
   </si>
   <si>
     <t>96,11%</t>
   </si>
   <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
   </si>
   <si>
     <t>0,76%</t>
   </si>
   <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
   </si>
   <si>
     <t>99,24%</t>
   </si>
   <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de estreñimiento crónico en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
   </si>
   <si>
     <t>1,24%</t>
   </si>
   <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
   </si>
   <si>
     <t>98,76%</t>
   </si>
   <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de estreñimiento crónico en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>99,96%</t>
+  </si>
+  <si>
+    <t>99,98%</t>
   </si>
   <si>
     <t>0,04%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>99,96%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de estreñimiento crónico en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>99,94%</t>
-  </si>
-  <si>
-    <t>99,98%</t>
   </si>
   <si>
     <t>0,02%</t>
@@ -1304,7 +1295,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7A2E00F-67A0-4F75-815D-404276628B50}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F112930-3DB7-4554-B503-6ABC5FD97A46}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2106,10 +2097,10 @@
         <v>55</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2124,10 +2115,10 @@
         <v>666749</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>29</v>
@@ -2139,13 +2130,13 @@
         <v>650580</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M18" s="7">
         <v>1226</v>
@@ -2154,13 +2145,13 @@
         <v>1317329</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2216,7 +2207,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2234,7 +2225,7 @@
         <v>16</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2249,7 +2240,7 @@
         <v>16</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2264,7 +2255,7 @@
         <v>16</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2279,13 +2270,13 @@
         <v>1169</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H21" s="7">
         <v>9</v>
@@ -2294,13 +2285,13 @@
         <v>9501</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M21" s="7">
         <v>10</v>
@@ -2309,13 +2300,13 @@
         <v>10670</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2330,10 +2321,10 @@
         <v>211449</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>29</v>
@@ -2345,13 +2336,13 @@
         <v>210090</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M22" s="7">
         <v>398</v>
@@ -2360,13 +2351,13 @@
         <v>421539</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2422,7 +2413,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2440,7 +2431,7 @@
         <v>16</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -2455,7 +2446,7 @@
         <v>16</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -2470,7 +2461,7 @@
         <v>16</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2491,7 +2482,7 @@
         <v>16</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -2500,13 +2491,13 @@
         <v>976</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M25" s="7">
         <v>1</v>
@@ -2515,13 +2506,13 @@
         <v>976</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2539,7 +2530,7 @@
         <v>29</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>36</v>
@@ -2551,10 +2542,10 @@
         <v>277120</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>29</v>
@@ -2566,10 +2557,10 @@
         <v>551101</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>29</v>
@@ -2628,7 +2619,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2697,7 +2688,7 @@
         <v>15</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H29" s="7">
         <v>10</v>
@@ -2706,13 +2697,13 @@
         <v>12323</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="K29" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="M29" s="7">
         <v>12</v>
@@ -2721,13 +2712,13 @@
         <v>14322</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2742,10 +2733,10 @@
         <v>660789</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>29</v>
@@ -2757,13 +2748,13 @@
         <v>681530</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="M30" s="7">
         <v>1242</v>
@@ -2772,13 +2763,13 @@
         <v>1342319</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2834,7 +2825,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -2852,7 +2843,7 @@
         <v>16</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -2867,7 +2858,7 @@
         <v>16</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -2882,7 +2873,7 @@
         <v>16</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2897,13 +2888,13 @@
         <v>2141</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="H33" s="7">
         <v>10</v>
@@ -2912,13 +2903,13 @@
         <v>11524</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="M33" s="7">
         <v>12</v>
@@ -2927,13 +2918,13 @@
         <v>13665</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q33" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2948,10 +2939,10 @@
         <v>776957</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>29</v>
@@ -2963,13 +2954,13 @@
         <v>809871</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>108</v>
+        <v>48</v>
       </c>
       <c r="M34" s="7">
         <v>1460</v>
@@ -2978,13 +2969,13 @@
         <v>1586828</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3058,7 +3049,7 @@
         <v>16</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -3073,7 +3064,7 @@
         <v>16</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -3088,7 +3079,7 @@
         <v>16</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3106,10 +3097,10 @@
         <v>39</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>42</v>
+        <v>128</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>68</v>
+        <v>129</v>
       </c>
       <c r="H37" s="7">
         <v>66</v>
@@ -3121,10 +3112,10 @@
         <v>130</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>89</v>
+        <v>131</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M37" s="7">
         <v>76</v>
@@ -3133,13 +3124,13 @@
         <v>81910</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3154,13 +3145,13 @@
         <v>3416486</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>47</v>
+        <v>137</v>
       </c>
       <c r="H38" s="7">
         <v>3229</v>
@@ -3169,13 +3160,13 @@
         <v>3482299</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>93</v>
+        <v>140</v>
       </c>
       <c r="M38" s="7">
         <v>6428</v>
@@ -3184,13 +3175,13 @@
         <v>6898784</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3246,7 +3237,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -3270,7 +3261,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55F972B5-04F5-4AAD-93AE-E47DEAC3EECA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{067E59E9-0490-410E-B115-C471338EF7D9}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3287,7 +3278,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3400,7 +3391,7 @@
         <v>16</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3415,7 +3406,7 @@
         <v>16</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3430,7 +3421,7 @@
         <v>16</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3445,13 +3436,13 @@
         <v>1236</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="H5" s="7">
         <v>11</v>
@@ -3460,13 +3451,13 @@
         <v>12241</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="M5" s="7">
         <v>12</v>
@@ -3475,13 +3466,13 @@
         <v>13477</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3496,10 +3487,10 @@
         <v>292525</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>29</v>
@@ -3511,13 +3502,13 @@
         <v>276462</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="M6" s="7">
         <v>531</v>
@@ -3526,13 +3517,13 @@
         <v>568987</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="P6" s="7" t="s">
-        <v>158</v>
-      </c>
       <c r="Q6" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3651,13 +3642,13 @@
         <v>2808</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -3681,13 +3672,13 @@
         <v>2808</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>163</v>
+        <v>15</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3702,13 +3693,13 @@
         <v>499767</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H10" s="7">
         <v>484</v>
@@ -3732,13 +3723,13 @@
         <v>1022851</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>167</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3860,10 +3851,10 @@
         <v>170</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -3872,13 +3863,13 @@
         <v>3205</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M13" s="7">
         <v>6</v>
@@ -3890,10 +3881,10 @@
         <v>51</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>18</v>
+        <v>174</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>21</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3908,13 +3899,13 @@
         <v>315046</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>177</v>
+        <v>58</v>
       </c>
       <c r="H14" s="7">
         <v>329</v>
@@ -3929,7 +3920,7 @@
         <v>179</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M14" s="7">
         <v>661</v>
@@ -3938,13 +3929,13 @@
         <v>648151</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>30</v>
+        <v>180</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>27</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4018,7 +4009,7 @@
         <v>16</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4033,7 +4024,7 @@
         <v>16</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4048,7 +4039,7 @@
         <v>16</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4063,13 +4054,13 @@
         <v>901</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>74</v>
+        <v>184</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
@@ -4078,13 +4069,13 @@
         <v>8012</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>183</v>
+        <v>67</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M17" s="7">
         <v>8</v>
@@ -4093,13 +4084,13 @@
         <v>8914</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4114,10 +4105,10 @@
         <v>369063</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>83</v>
+        <v>190</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>29</v>
@@ -4129,13 +4120,13 @@
         <v>379271</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M18" s="7">
         <v>704</v>
@@ -4144,13 +4135,13 @@
         <v>748333</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>194</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4206,7 +4197,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4224,7 +4215,7 @@
         <v>16</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4239,7 +4230,7 @@
         <v>16</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4254,7 +4245,7 @@
         <v>16</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4269,13 +4260,13 @@
         <v>891</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="H21" s="7">
         <v>2</v>
@@ -4284,13 +4275,13 @@
         <v>2034</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="M21" s="7">
         <v>3</v>
@@ -4299,13 +4290,13 @@
         <v>2925</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4320,10 +4311,10 @@
         <v>210330</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>29</v>
@@ -4335,10 +4326,10 @@
         <v>216553</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>29</v>
@@ -4350,13 +4341,13 @@
         <v>426883</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4412,7 +4403,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -4430,7 +4421,7 @@
         <v>16</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -4445,7 +4436,7 @@
         <v>16</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -4460,7 +4451,7 @@
         <v>16</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4475,13 +4466,13 @@
         <v>3415</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -4490,13 +4481,13 @@
         <v>4475</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="M25" s="7">
         <v>8</v>
@@ -4508,10 +4499,10 @@
         <v>214</v>
       </c>
       <c r="P25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4526,13 +4517,13 @@
         <v>259708</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="H26" s="7">
         <v>259</v>
@@ -4544,10 +4535,10 @@
         <v>219</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>31</v>
+        <v>220</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="M26" s="7">
         <v>514</v>
@@ -4556,13 +4547,13 @@
         <v>528347</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4618,7 +4609,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -4636,7 +4627,7 @@
         <v>16</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -4666,7 +4657,7 @@
         <v>16</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>224</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4687,7 +4678,7 @@
         <v>15</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>225</v>
+        <v>134</v>
       </c>
       <c r="H29" s="7">
         <v>14</v>
@@ -4696,13 +4687,13 @@
         <v>16727</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>226</v>
+        <v>53</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>227</v>
+        <v>114</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="M29" s="7">
         <v>16</v>
@@ -4711,13 +4702,13 @@
         <v>18670</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>25</v>
+        <v>227</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4732,10 +4723,10 @@
         <v>654615</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>231</v>
+        <v>143</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>29</v>
@@ -4747,13 +4738,13 @@
         <v>674567</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>232</v>
+        <v>62</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>234</v>
+        <v>121</v>
       </c>
       <c r="M30" s="7">
         <v>1210</v>
@@ -4762,13 +4753,13 @@
         <v>1329182</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>35</v>
+        <v>232</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4824,7 +4815,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -4842,7 +4833,7 @@
         <v>16</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -4857,7 +4848,7 @@
         <v>16</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -4872,7 +4863,7 @@
         <v>16</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4887,13 +4878,13 @@
         <v>1848</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>118</v>
+        <v>207</v>
       </c>
       <c r="H33" s="7">
         <v>10</v>
@@ -4902,13 +4893,13 @@
         <v>12437</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>209</v>
+        <v>235</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="M33" s="7">
         <v>12</v>
@@ -4917,13 +4908,13 @@
         <v>14285</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>225</v>
+        <v>92</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>240</v>
+        <v>69</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4938,10 +4929,10 @@
         <v>776735</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>125</v>
+        <v>237</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>29</v>
@@ -4953,13 +4944,13 @@
         <v>813730</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>243</v>
+        <v>222</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="M34" s="7">
         <v>1493</v>
@@ -4968,13 +4959,13 @@
         <v>1590465</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>231</v>
+        <v>96</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5048,7 +5039,7 @@
         <v>16</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -5063,7 +5054,7 @@
         <v>16</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -5078,7 +5069,7 @@
         <v>16</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5093,13 +5084,13 @@
         <v>16562</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>50</v>
+        <v>243</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H37" s="7">
         <v>51</v>
@@ -5108,13 +5099,13 @@
         <v>59131</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="M37" s="7">
         <v>68</v>
@@ -5123,13 +5114,13 @@
         <v>75693</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>195</v>
+        <v>113</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>116</v>
+        <v>184</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5144,13 +5135,13 @@
         <v>3377788</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>57</v>
+        <v>251</v>
       </c>
       <c r="H38" s="7">
         <v>3287</v>
@@ -5159,13 +5150,13 @@
         <v>3485411</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M38" s="7">
         <v>6501</v>
@@ -5174,13 +5165,13 @@
         <v>6863199</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>123</v>
+        <v>190</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>259</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -5236,7 +5227,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -5260,7 +5251,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD7791A6-150F-44EE-879F-115674BDF1F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03C0C31-C498-48BA-AB02-A3DC2ECB37A7}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5277,7 +5268,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5387,7 +5378,7 @@
         <v>29</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>36</v>
@@ -5402,7 +5393,7 @@
         <v>29</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>36</v>
@@ -5417,7 +5408,7 @@
         <v>29</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>36</v>
@@ -5456,7 +5447,7 @@
         <v>16</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -5471,7 +5462,7 @@
         <v>16</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5507,7 +5498,7 @@
         <v>16</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -5522,7 +5513,7 @@
         <v>16</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5593,7 +5584,7 @@
         <v>29</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>36</v>
@@ -5608,7 +5599,7 @@
         <v>29</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>36</v>
@@ -5623,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>36</v>
@@ -5647,7 +5638,7 @@
         <v>16</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -5662,7 +5653,7 @@
         <v>16</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -5677,7 +5668,7 @@
         <v>16</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5698,7 +5689,7 @@
         <v>16</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -5713,7 +5704,7 @@
         <v>16</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -5728,7 +5719,7 @@
         <v>16</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5799,7 +5790,7 @@
         <v>29</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>111</v>
+        <v>136</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>36</v>
@@ -5814,7 +5805,7 @@
         <v>29</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>36</v>
@@ -5829,7 +5820,7 @@
         <v>29</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>36</v>
@@ -5853,7 +5844,7 @@
         <v>16</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -5868,7 +5859,7 @@
         <v>16</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -5883,7 +5874,7 @@
         <v>16</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5904,7 +5895,7 @@
         <v>16</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -5919,7 +5910,7 @@
         <v>16</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -5934,7 +5925,7 @@
         <v>16</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6005,7 +5996,7 @@
         <v>29</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>36</v>
@@ -6020,7 +6011,7 @@
         <v>29</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>36</v>
@@ -6035,7 +6026,7 @@
         <v>29</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>36</v>
@@ -6059,7 +6050,7 @@
         <v>16</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -6074,7 +6065,7 @@
         <v>16</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -6089,7 +6080,7 @@
         <v>16</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6110,7 +6101,7 @@
         <v>16</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -6125,7 +6116,7 @@
         <v>16</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -6140,7 +6131,7 @@
         <v>16</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6196,7 +6187,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -6211,7 +6202,7 @@
         <v>29</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>271</v>
+        <v>223</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>36</v>
@@ -6226,7 +6217,7 @@
         <v>29</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>272</v>
+        <v>218</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>36</v>
@@ -6241,7 +6232,7 @@
         <v>29</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>36</v>
@@ -6265,7 +6256,7 @@
         <v>16</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -6280,7 +6271,7 @@
         <v>16</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>274</v>
+        <v>210</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -6295,7 +6286,7 @@
         <v>16</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6316,7 +6307,7 @@
         <v>16</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -6331,7 +6322,7 @@
         <v>16</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>274</v>
+        <v>210</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -6346,7 +6337,7 @@
         <v>16</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6402,7 +6393,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -6417,7 +6408,7 @@
         <v>29</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>194</v>
+        <v>268</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>36</v>
@@ -6432,7 +6423,7 @@
         <v>29</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>36</v>
@@ -6447,7 +6438,7 @@
         <v>29</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>36</v>
@@ -6471,7 +6462,7 @@
         <v>16</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>186</v>
+        <v>270</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -6486,7 +6477,7 @@
         <v>16</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -6501,7 +6492,7 @@
         <v>16</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6522,7 +6513,7 @@
         <v>16</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>186</v>
+        <v>270</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -6537,7 +6528,7 @@
         <v>16</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -6552,7 +6543,7 @@
         <v>16</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6608,7 +6599,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6623,7 +6614,7 @@
         <v>29</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>36</v>
@@ -6638,7 +6629,7 @@
         <v>29</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>36</v>
@@ -6653,7 +6644,7 @@
         <v>29</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>36</v>
@@ -6677,7 +6668,7 @@
         <v>16</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -6707,7 +6698,7 @@
         <v>16</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6728,7 +6719,7 @@
         <v>16</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -6758,7 +6749,7 @@
         <v>16</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6814,7 +6805,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -6829,7 +6820,7 @@
         <v>29</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>36</v>
@@ -6844,7 +6835,7 @@
         <v>29</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>36</v>
@@ -6859,7 +6850,7 @@
         <v>29</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>36</v>
@@ -6883,7 +6874,7 @@
         <v>16</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -6898,7 +6889,7 @@
         <v>16</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M33" s="7">
         <v>0</v>
@@ -6913,7 +6904,7 @@
         <v>16</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6934,7 +6925,7 @@
         <v>16</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -6949,7 +6940,7 @@
         <v>16</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -6964,7 +6955,7 @@
         <v>16</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7035,7 +7026,7 @@
         <v>29</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>36</v>
@@ -7050,7 +7041,7 @@
         <v>29</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>177</v>
+        <v>278</v>
       </c>
       <c r="L36" s="7" t="s">
         <v>36</v>
@@ -7059,13 +7050,13 @@
         <v>8743</v>
       </c>
       <c r="N36" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O36" s="7" t="s">
         <v>29</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="Q36" s="7" t="s">
         <v>36</v>
@@ -7089,7 +7080,7 @@
         <v>16</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -7104,7 +7095,7 @@
         <v>16</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>171</v>
+        <v>280</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -7119,7 +7110,7 @@
         <v>16</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7140,7 +7131,7 @@
         <v>16</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -7155,7 +7146,7 @@
         <v>16</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>171</v>
+        <v>280</v>
       </c>
       <c r="M38" s="7">
         <v>0</v>
@@ -7170,7 +7161,7 @@
         <v>16</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7212,7 +7203,7 @@
         <v>8743</v>
       </c>
       <c r="N39" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>36</v>
@@ -7226,7 +7217,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1407-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1407-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{423DBC0F-557A-40C4-BA11-6EB948A2C27C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6FFFBB7B-7A1D-456C-9B85-EFA72FD5EF76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2A5A531C-1F2E-47A2-8553-00651EBCC181}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{04C63056-414D-4897-BCA7-25F4C62EF30B}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="255">
   <si>
     <t>Población con diagnóstico de estreñimiento crónico en 2012 (Tasa respuesta: 99,95%)</t>
   </si>
@@ -72,21 +72,72 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>Cadiz</t>
   </si>
   <si>
     <t>0,4%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
     <t>1,23%</t>
   </si>
   <si>
@@ -114,9 +165,6 @@
     <t>98,77%</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
     <t>97,77%</t>
   </si>
   <si>
@@ -135,9 +183,6 @@
     <t>99,28%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
     <t>Cordoba</t>
   </si>
   <si>
@@ -177,360 +222,363 @@
     <t>Granada</t>
   </si>
   <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de estreñimiento crónico en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
     <t>0,29%</t>
   </si>
   <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
     <t>1,03%</t>
   </si>
   <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
   </si>
   <si>
     <t>99,71%</t>
   </si>
   <si>
+    <t>99,05%</t>
+  </si>
+  <si>
     <t>98,97%</t>
   </si>
   <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de estreñimiento crónico en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
     <t>0,24%</t>
   </si>
   <si>
-    <t>1,35%</t>
-  </si>
-  <si>
     <t>2,07%</t>
   </si>
   <si>
@@ -550,9 +598,6 @@
   </si>
   <si>
     <t>99,76%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
   </si>
   <si>
     <t>97,93%</t>
@@ -1168,7 +1213,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E73BCB4-1DA8-4DCB-A877-89AB2FF8F437}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D01F0D1A-20EE-49B1-A9CB-47E4A2F2BCCF}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1286,88 +1331,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1971</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="I4" s="7">
+        <v>8729</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="N4" s="7">
+        <v>10700</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>280</v>
+      </c>
+      <c r="D5" s="7">
+        <v>292767</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>248</v>
+      </c>
+      <c r="I5" s="7">
+        <v>278516</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>528</v>
+      </c>
+      <c r="N5" s="7">
+        <v>571283</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1376,48 +1433,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>282</v>
+      </c>
+      <c r="D6" s="7">
+        <v>294738</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>256</v>
+      </c>
+      <c r="I6" s="7">
+        <v>287245</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>538</v>
+      </c>
+      <c r="N6" s="7">
+        <v>581983</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1429,13 +1492,13 @@
         <v>2021</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="H7" s="7">
         <v>11</v>
@@ -1444,13 +1507,13 @@
         <v>11677</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
         <v>13</v>
@@ -1459,19 +1522,19 @@
         <v>13698</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>470</v>
@@ -1480,13 +1543,13 @@
         <v>503506</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="H8" s="7">
         <v>469</v>
@@ -1495,13 +1558,13 @@
         <v>512088</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="M8" s="7">
         <v>939</v>
@@ -1510,13 +1573,13 @@
         <v>1015594</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1531,13 +1594,13 @@
         <v>505527</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>480</v>
@@ -1546,13 +1609,13 @@
         <v>523765</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>952</v>
@@ -1561,18 +1624,18 @@
         <v>1029292</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1584,13 +1647,13 @@
         <v>992</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -1599,13 +1662,13 @@
         <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -1614,19 +1677,19 @@
         <v>992</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>318</v>
@@ -1635,13 +1698,13 @@
         <v>323054</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H11" s="7">
         <v>317</v>
@@ -1650,13 +1713,13 @@
         <v>341020</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M11" s="7">
         <v>635</v>
@@ -1665,13 +1728,13 @@
         <v>664074</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1686,13 +1749,13 @@
         <v>324046</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>317</v>
@@ -1701,13 +1764,13 @@
         <v>341020</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>636</v>
@@ -1716,117 +1779,117 @@
         <v>665066</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>1971</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="H13" s="7">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="I13" s="7">
-        <v>25616</v>
+        <v>16887</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="M13" s="7">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="N13" s="7">
-        <v>27587</v>
+        <v>16887</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>624</v>
+        <v>344</v>
       </c>
       <c r="D14" s="7">
-        <v>666749</v>
+        <v>373982</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H14" s="7">
-        <v>602</v>
+        <v>354</v>
       </c>
       <c r="I14" s="7">
-        <v>650580</v>
+        <v>372064</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="M14" s="7">
-        <v>1226</v>
+        <v>698</v>
       </c>
       <c r="N14" s="7">
-        <v>1317329</v>
+        <v>746046</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1835,54 +1898,54 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>626</v>
+        <v>344</v>
       </c>
       <c r="D15" s="7">
-        <v>668720</v>
+        <v>373982</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>627</v>
+        <v>371</v>
       </c>
       <c r="I15" s="7">
-        <v>676196</v>
+        <v>388951</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1253</v>
+        <v>715</v>
       </c>
       <c r="N15" s="7">
-        <v>1344916</v>
+        <v>762933</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1894,13 +1957,13 @@
         <v>1169</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -1909,13 +1972,13 @@
         <v>9501</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="M16" s="7">
         <v>10</v>
@@ -1924,19 +1987,19 @@
         <v>10670</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>195</v>
@@ -1945,13 +2008,13 @@
         <v>211449</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H17" s="7">
         <v>203</v>
@@ -1960,13 +2023,13 @@
         <v>210090</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="M17" s="7">
         <v>398</v>
@@ -1975,13 +2038,13 @@
         <v>421539</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1996,13 +2059,13 @@
         <v>212618</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
         <v>212</v>
@@ -2011,13 +2074,13 @@
         <v>219591</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
         <v>408</v>
@@ -2026,18 +2089,18 @@
         <v>432209</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2049,13 +2112,13 @@
         <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -2064,13 +2127,13 @@
         <v>976</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -2079,19 +2142,19 @@
         <v>976</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
         <v>261</v>
@@ -2100,13 +2163,13 @@
         <v>273981</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H20" s="7">
         <v>267</v>
@@ -2115,13 +2178,13 @@
         <v>277120</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M20" s="7">
         <v>528</v>
@@ -2130,13 +2193,13 @@
         <v>551101</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2151,13 +2214,13 @@
         <v>273981</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H21" s="7">
         <v>268</v>
@@ -2166,13 +2229,13 @@
         <v>278096</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M21" s="7">
         <v>529</v>
@@ -2181,18 +2244,18 @@
         <v>552077</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2204,13 +2267,13 @@
         <v>1999</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="H22" s="7">
         <v>10</v>
@@ -2219,13 +2282,13 @@
         <v>12323</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="M22" s="7">
         <v>12</v>
@@ -2234,19 +2297,19 @@
         <v>14322</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
         <v>616</v>
@@ -2255,13 +2318,13 @@
         <v>660789</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H23" s="7">
         <v>626</v>
@@ -2270,13 +2333,13 @@
         <v>681530</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="M23" s="7">
         <v>1242</v>
@@ -2285,13 +2348,13 @@
         <v>1342319</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2306,13 +2369,13 @@
         <v>662788</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H24" s="7">
         <v>636</v>
@@ -2321,13 +2384,13 @@
         <v>693853</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M24" s="7">
         <v>1254</v>
@@ -2336,18 +2399,18 @@
         <v>1356641</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2359,13 +2422,13 @@
         <v>2141</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="H25" s="7">
         <v>10</v>
@@ -2374,13 +2437,13 @@
         <v>11524</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>52</v>
+        <v>120</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="M25" s="7">
         <v>12</v>
@@ -2389,19 +2452,19 @@
         <v>13665</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C26" s="7">
         <v>715</v>
@@ -2410,13 +2473,13 @@
         <v>776957</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H26" s="7">
         <v>745</v>
@@ -2425,13 +2488,13 @@
         <v>809871</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>61</v>
+        <v>127</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="M26" s="7">
         <v>1460</v>
@@ -2440,13 +2503,13 @@
         <v>1586828</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2461,13 +2524,13 @@
         <v>779098</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H27" s="7">
         <v>755</v>
@@ -2476,13 +2539,13 @@
         <v>821395</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M27" s="7">
         <v>1472</v>
@@ -2491,13 +2554,13 @@
         <v>1600493</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2514,13 +2577,13 @@
         <v>10293</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>118</v>
+        <v>61</v>
       </c>
       <c r="H28" s="7">
         <v>66</v>
@@ -2529,13 +2592,13 @@
         <v>71617</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="M28" s="7">
         <v>76</v>
@@ -2544,19 +2607,19 @@
         <v>81910</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
         <v>3199</v>
@@ -2565,13 +2628,13 @@
         <v>3416486</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>125</v>
+        <v>68</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="H29" s="7">
         <v>3229</v>
@@ -2580,13 +2643,13 @@
         <v>3482299</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="M29" s="7">
         <v>6428</v>
@@ -2595,13 +2658,13 @@
         <v>6898784</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2616,13 +2679,13 @@
         <v>3426779</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H30" s="7">
         <v>3295</v>
@@ -2631,13 +2694,13 @@
         <v>3553916</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M30" s="7">
         <v>6504</v>
@@ -2646,18 +2709,18 @@
         <v>6980694</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -2681,7 +2744,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48A20F91-39C3-4FB7-9898-AAAF6FC44409}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C51A245-B97B-44B7-802B-E19172A7515A}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2698,7 +2761,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2805,13 +2868,13 @@
         <v>1236</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="H4" s="7">
         <v>11</v>
@@ -2820,13 +2883,13 @@
         <v>12241</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="M4" s="7">
         <v>12</v>
@@ -2835,19 +2898,19 @@
         <v>13477</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>265</v>
@@ -2856,13 +2919,13 @@
         <v>292525</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>266</v>
@@ -2871,13 +2934,13 @@
         <v>276462</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="M5" s="7">
         <v>531</v>
@@ -2886,13 +2949,13 @@
         <v>568987</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2907,13 +2970,13 @@
         <v>293761</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>277</v>
@@ -2922,13 +2985,13 @@
         <v>288703</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>543</v>
@@ -2937,18 +3000,18 @@
         <v>582464</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2960,13 +3023,13 @@
         <v>2808</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>118</v>
+        <v>61</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -2975,13 +3038,13 @@
         <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -2990,19 +3053,19 @@
         <v>2808</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>472</v>
@@ -3011,13 +3074,13 @@
         <v>499767</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>125</v>
+        <v>68</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="H8" s="7">
         <v>484</v>
@@ -3026,13 +3089,13 @@
         <v>523084</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M8" s="7">
         <v>956</v>
@@ -3041,13 +3104,13 @@
         <v>1022851</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3062,13 +3125,13 @@
         <v>502575</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>484</v>
@@ -3077,13 +3140,13 @@
         <v>523084</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>959</v>
@@ -3092,18 +3155,18 @@
         <v>1025659</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3115,13 +3178,13 @@
         <v>3519</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>46</v>
+        <v>170</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -3130,13 +3193,13 @@
         <v>3205</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -3145,19 +3208,19 @@
         <v>6723</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>47</v>
+        <v>173</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>332</v>
@@ -3166,13 +3229,13 @@
         <v>315046</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>54</v>
+        <v>176</v>
       </c>
       <c r="H11" s="7">
         <v>329</v>
@@ -3181,13 +3244,13 @@
         <v>333104</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="M11" s="7">
         <v>661</v>
@@ -3196,13 +3259,13 @@
         <v>648151</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>55</v>
+        <v>178</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3217,13 +3280,13 @@
         <v>318565</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>332</v>
@@ -3232,13 +3295,13 @@
         <v>336309</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>667</v>
@@ -3247,18 +3310,18 @@
         <v>654874</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3270,13 +3333,13 @@
         <v>901</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="H13" s="7">
         <v>7</v>
@@ -3285,13 +3348,13 @@
         <v>8012</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
@@ -3300,19 +3363,19 @@
         <v>8914</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>353</v>
@@ -3321,13 +3384,13 @@
         <v>369063</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>171</v>
+        <v>26</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H14" s="7">
         <v>351</v>
@@ -3336,13 +3399,13 @@
         <v>379271</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="M14" s="7">
         <v>704</v>
@@ -3351,13 +3414,13 @@
         <v>748333</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3372,13 +3435,13 @@
         <v>369964</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>358</v>
@@ -3387,13 +3450,13 @@
         <v>387283</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>712</v>
@@ -3402,18 +3465,18 @@
         <v>757247</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3425,13 +3488,13 @@
         <v>891</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -3440,13 +3503,13 @@
         <v>2034</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -3455,19 +3518,19 @@
         <v>2925</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>211</v>
@@ -3476,13 +3539,13 @@
         <v>210330</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H17" s="7">
         <v>221</v>
@@ -3491,13 +3554,13 @@
         <v>216553</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M17" s="7">
         <v>432</v>
@@ -3506,13 +3569,13 @@
         <v>426883</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3527,13 +3590,13 @@
         <v>211221</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
         <v>223</v>
@@ -3542,13 +3605,13 @@
         <v>218587</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
         <v>435</v>
@@ -3557,18 +3620,18 @@
         <v>429808</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3580,13 +3643,13 @@
         <v>3415</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -3595,13 +3658,13 @@
         <v>4475</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="M19" s="7">
         <v>8</v>
@@ -3610,19 +3673,19 @@
         <v>7891</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
         <v>255</v>
@@ -3631,13 +3694,13 @@
         <v>259708</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="H20" s="7">
         <v>259</v>
@@ -3646,13 +3709,13 @@
         <v>268640</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="M20" s="7">
         <v>514</v>
@@ -3661,13 +3724,13 @@
         <v>528347</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3682,13 +3745,13 @@
         <v>263123</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H21" s="7">
         <v>263</v>
@@ -3697,13 +3760,13 @@
         <v>273115</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M21" s="7">
         <v>522</v>
@@ -3712,18 +3775,18 @@
         <v>536238</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3735,13 +3798,13 @@
         <v>1943</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="H22" s="7">
         <v>14</v>
@@ -3750,13 +3813,13 @@
         <v>16727</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="M22" s="7">
         <v>16</v>
@@ -3765,19 +3828,19 @@
         <v>18670</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
         <v>578</v>
@@ -3786,13 +3849,13 @@
         <v>654615</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H23" s="7">
         <v>632</v>
@@ -3801,13 +3864,13 @@
         <v>674567</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="M23" s="7">
         <v>1210</v>
@@ -3816,13 +3879,13 @@
         <v>1329182</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3837,13 +3900,13 @@
         <v>656558</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H24" s="7">
         <v>646</v>
@@ -3852,13 +3915,13 @@
         <v>691294</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M24" s="7">
         <v>1226</v>
@@ -3867,18 +3930,18 @@
         <v>1347852</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3890,13 +3953,13 @@
         <v>1848</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="H25" s="7">
         <v>10</v>
@@ -3905,13 +3968,13 @@
         <v>12437</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="M25" s="7">
         <v>12</v>
@@ -3920,19 +3983,19 @@
         <v>14285</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C26" s="7">
         <v>748</v>
@@ -3941,13 +4004,13 @@
         <v>776735</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H26" s="7">
         <v>745</v>
@@ -3956,13 +4019,13 @@
         <v>813730</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="M26" s="7">
         <v>1493</v>
@@ -3971,13 +4034,13 @@
         <v>1590465</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3992,13 +4055,13 @@
         <v>778583</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H27" s="7">
         <v>755</v>
@@ -4007,13 +4070,13 @@
         <v>826167</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M27" s="7">
         <v>1505</v>
@@ -4022,13 +4085,13 @@
         <v>1604750</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4045,13 +4108,13 @@
         <v>16562</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>46</v>
+        <v>170</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="H28" s="7">
         <v>51</v>
@@ -4060,13 +4123,13 @@
         <v>59131</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="M28" s="7">
         <v>68</v>
@@ -4075,19 +4138,19 @@
         <v>75693</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
         <v>3214</v>
@@ -4096,13 +4159,13 @@
         <v>3377788</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>54</v>
+        <v>176</v>
       </c>
       <c r="H29" s="7">
         <v>3287</v>
@@ -4111,13 +4174,13 @@
         <v>3485411</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="M29" s="7">
         <v>6501</v>
@@ -4126,13 +4189,13 @@
         <v>6863199</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4147,13 +4210,13 @@
         <v>3394350</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H30" s="7">
         <v>3338</v>
@@ -4162,13 +4225,13 @@
         <v>3544542</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M30" s="7">
         <v>6569</v>
@@ -4177,18 +4240,18 @@
         <v>6938892</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
